--- a/Assets/imgKanjiData.xlsx
+++ b/Assets/imgKanjiData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\KanjiTrain2\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0B153F-68FC-4E7E-9AC5-7D52B5228615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA16BEE-DAD9-4733-A19C-92EAED83D384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="135" windowWidth="27180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -744,12 +744,12 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -764,7 +764,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -786,7 +786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -808,7 +808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -819,7 +819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -841,7 +841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -852,7 +852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -863,7 +863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -874,7 +874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -885,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -896,9 +896,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -918,7 +918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -929,7 +929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -940,7 +940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -951,7 +951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -962,7 +962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -973,7 +973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -984,7 +984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>

--- a/Assets/imgKanjiData.xlsx
+++ b/Assets/imgKanjiData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\KanjiTrain2\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA16BEE-DAD9-4733-A19C-92EAED83D384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A41208-88D7-49D7-A430-A202E5FA9588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>ボールをケる</t>
   </si>
   <si>
-    <t>簿</t>
-  </si>
-  <si>
     <t>髪がウスくなる</t>
   </si>
   <si>
@@ -394,6 +391,13 @@
   </si>
   <si>
     <t>example</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>薄</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -401,7 +405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -434,6 +438,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -511,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -523,6 +534,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -743,8 +755,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,13 +767,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1120,11 +1132,11 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1132,10 +1144,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1143,10 +1155,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1154,10 +1166,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1165,10 +1177,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1176,10 +1188,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1187,10 +1199,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1198,10 +1210,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1209,10 +1221,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1220,10 +1232,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1231,10 +1243,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1242,10 +1254,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1253,10 +1265,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -1265,10 +1277,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1276,10 +1288,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1287,10 +1299,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1298,10 +1310,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="F50" s="6"/>
     </row>
@@ -1310,10 +1322,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1321,10 +1333,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1332,10 +1344,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1343,10 +1355,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1354,10 +1366,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1365,10 +1377,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1376,10 +1388,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1387,10 +1399,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -1398,10 +1410,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -1410,10 +1422,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1421,10 +1433,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/imgKanjiData.xlsx
+++ b/Assets/imgKanjiData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\KanjiTrain2\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A41208-88D7-49D7-A430-A202E5FA9588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B24CDF9-7467-44FC-9BE0-49CC29C6415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="1200" windowWidth="15765" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>窮</t>
   </si>
   <si>
-    <t>生活に困キュウする</t>
-  </si>
-  <si>
     <t>券</t>
   </si>
   <si>
@@ -82,21 +79,12 @@
     <t>浪</t>
   </si>
   <si>
-    <t>時間をロウ費する</t>
-  </si>
-  <si>
     <t>冥</t>
   </si>
   <si>
-    <t>メイ土の土産</t>
-  </si>
-  <si>
     <t>戚</t>
   </si>
   <si>
-    <t>親セキ一同が集う</t>
-  </si>
-  <si>
     <t>威</t>
   </si>
   <si>
@@ -146,9 +134,6 @@
   </si>
   <si>
     <t>凄</t>
-  </si>
-  <si>
-    <t>スゴい人</t>
   </si>
   <si>
     <t>伺</t>
@@ -400,12 +385,34 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>オタマジャクシを捕まえる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ハグキが腫れる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カリン味ののどあめ</t>
+    <rPh sb="3" eb="4">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>足がツる</t>
+  </si>
+  <si>
+    <t>ミソギをうける</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -448,6 +455,34 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -522,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -535,6 +570,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -755,36 +795,36 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+      <c r="C2" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -792,10 +832,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -803,10 +843,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -814,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -825,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -836,10 +876,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -847,10 +887,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -858,10 +898,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -869,21 +909,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -891,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -902,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -913,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -924,10 +964,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -935,10 +975,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -946,10 +986,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -957,10 +997,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -968,10 +1008,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -979,10 +1019,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -990,10 +1030,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1001,10 +1041,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1012,10 +1052,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1023,10 +1063,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1034,10 +1074,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1045,10 +1085,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1056,10 +1096,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1067,10 +1107,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1078,10 +1118,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1089,10 +1129,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1100,10 +1140,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1111,10 +1151,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1122,10 +1162,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1133,10 +1173,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1144,10 +1184,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1155,10 +1195,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1166,10 +1206,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1177,10 +1217,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1188,10 +1228,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1199,10 +1239,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1210,10 +1250,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1221,10 +1261,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1232,10 +1272,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1243,10 +1283,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1254,10 +1294,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1265,10 +1305,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -1277,10 +1317,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1288,10 +1328,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1299,10 +1339,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1310,10 +1350,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F50" s="6"/>
     </row>
@@ -1322,10 +1362,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1333,10 +1373,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1344,10 +1384,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1355,10 +1395,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1366,10 +1406,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1377,10 +1417,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1388,10 +1428,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1399,10 +1439,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -1410,10 +1450,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -1422,10 +1462,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1433,10 +1473,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
